--- a/3DBeam/output/220829_Berechnungs_Ergebnisse_C24.xlsx
+++ b/3DBeam/output/220829_Berechnungs_Ergebnisse_C24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Projekte\Projekte 2022\(E) Entwicklung\22-E-001 - Studie Windraeder\CoupledBeams\3DBeam\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529DFE9D-8630-419A-9ED6-71BC8EE42846}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C652FC-523D-47AF-904D-B2F3D2C84D25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berechnungs_Ergebnisse" sheetId="1" r:id="rId1"/>
@@ -227,19 +227,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -522,11 +522,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW122"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="DA29" sqref="DA29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="101" width="18" style="2" customWidth="1"/>
+    <col min="1" max="6" width="18" style="2" customWidth="1"/>
+    <col min="7" max="25" width="18" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="2" customWidth="1"/>
+    <col min="27" max="45" width="18" style="2" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="18" style="2" customWidth="1"/>
+    <col min="47" max="65" width="18" style="2" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="18" style="2" customWidth="1"/>
+    <col min="67" max="85" width="18" style="2" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="18" style="2" customWidth="1"/>
+    <col min="87" max="101" width="18" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,261 +838,261 @@
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="8">
         <v>110</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="4">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="8">
         <v>130</v>
       </c>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="4">
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="8">
         <v>140</v>
       </c>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="6"/>
-      <c r="BJ23" s="4">
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="8">
         <v>150</v>
       </c>
-      <c r="BK23" s="5"/>
-      <c r="BL23" s="5"/>
-      <c r="BM23" s="5"/>
-      <c r="BN23" s="5"/>
-      <c r="BO23" s="5"/>
-      <c r="BP23" s="5"/>
-      <c r="BQ23" s="5"/>
-      <c r="BR23" s="5"/>
-      <c r="BS23" s="5"/>
-      <c r="BT23" s="5"/>
-      <c r="BU23" s="5"/>
-      <c r="BV23" s="5"/>
-      <c r="BW23" s="5"/>
-      <c r="BX23" s="5"/>
-      <c r="BY23" s="5"/>
-      <c r="BZ23" s="5"/>
-      <c r="CA23" s="5"/>
-      <c r="CB23" s="5"/>
-      <c r="CC23" s="6"/>
-      <c r="CD23" s="4">
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9"/>
+      <c r="BU23" s="9"/>
+      <c r="BV23" s="9"/>
+      <c r="BW23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="9"/>
+      <c r="BZ23" s="9"/>
+      <c r="CA23" s="9"/>
+      <c r="CB23" s="9"/>
+      <c r="CC23" s="10"/>
+      <c r="CD23" s="8">
         <v>160</v>
       </c>
-      <c r="CE23" s="5"/>
-      <c r="CF23" s="5"/>
-      <c r="CG23" s="5"/>
-      <c r="CH23" s="5"/>
-      <c r="CI23" s="5"/>
-      <c r="CJ23" s="5"/>
-      <c r="CK23" s="5"/>
-      <c r="CL23" s="5"/>
-      <c r="CM23" s="5"/>
-      <c r="CN23" s="5"/>
-      <c r="CO23" s="5"/>
-      <c r="CP23" s="5"/>
-      <c r="CQ23" s="5"/>
-      <c r="CR23" s="5"/>
-      <c r="CS23" s="5"/>
-      <c r="CT23" s="5"/>
-      <c r="CU23" s="5"/>
-      <c r="CV23" s="5"/>
-      <c r="CW23" s="6"/>
+      <c r="CE23" s="9"/>
+      <c r="CF23" s="9"/>
+      <c r="CG23" s="9"/>
+      <c r="CH23" s="9"/>
+      <c r="CI23" s="9"/>
+      <c r="CJ23" s="9"/>
+      <c r="CK23" s="9"/>
+      <c r="CL23" s="9"/>
+      <c r="CM23" s="9"/>
+      <c r="CN23" s="9"/>
+      <c r="CO23" s="9"/>
+      <c r="CP23" s="9"/>
+      <c r="CQ23" s="9"/>
+      <c r="CR23" s="9"/>
+      <c r="CS23" s="9"/>
+      <c r="CT23" s="9"/>
+      <c r="CU23" s="9"/>
+      <c r="CV23" s="9"/>
+      <c r="CW23" s="10"/>
     </row>
     <row r="24" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="4" t="s">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="4" t="s">
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="4" t="s">
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="4" t="s">
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="4" t="s">
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="6"/>
-      <c r="AK24" s="4" t="s">
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="4" t="s">
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="6"/>
-      <c r="AU24" s="4" t="s">
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="6"/>
-      <c r="AZ24" s="4" t="s">
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="6"/>
-      <c r="BE24" s="4" t="s">
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="6"/>
-      <c r="BJ24" s="4" t="s">
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BK24" s="5"/>
-      <c r="BL24" s="5"/>
-      <c r="BM24" s="5"/>
-      <c r="BN24" s="6"/>
-      <c r="BO24" s="4" t="s">
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="10"/>
+      <c r="BO24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="BP24" s="5"/>
-      <c r="BQ24" s="5"/>
-      <c r="BR24" s="5"/>
-      <c r="BS24" s="6"/>
-      <c r="BT24" s="4" t="s">
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="9"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="10"/>
+      <c r="BT24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BU24" s="5"/>
-      <c r="BV24" s="5"/>
-      <c r="BW24" s="5"/>
-      <c r="BX24" s="6"/>
-      <c r="BY24" s="4" t="s">
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="10"/>
+      <c r="BY24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="BZ24" s="5"/>
-      <c r="CA24" s="5"/>
-      <c r="CB24" s="5"/>
-      <c r="CC24" s="6"/>
-      <c r="CD24" s="4" t="s">
+      <c r="BZ24" s="9"/>
+      <c r="CA24" s="9"/>
+      <c r="CB24" s="9"/>
+      <c r="CC24" s="10"/>
+      <c r="CD24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="CE24" s="5"/>
-      <c r="CF24" s="5"/>
-      <c r="CG24" s="5"/>
-      <c r="CH24" s="6"/>
-      <c r="CI24" s="4" t="s">
+      <c r="CE24" s="9"/>
+      <c r="CF24" s="9"/>
+      <c r="CG24" s="9"/>
+      <c r="CH24" s="10"/>
+      <c r="CI24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="CJ24" s="5"/>
-      <c r="CK24" s="5"/>
-      <c r="CL24" s="5"/>
-      <c r="CM24" s="6"/>
-      <c r="CN24" s="4" t="s">
+      <c r="CJ24" s="9"/>
+      <c r="CK24" s="9"/>
+      <c r="CL24" s="9"/>
+      <c r="CM24" s="10"/>
+      <c r="CN24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="CO24" s="5"/>
-      <c r="CP24" s="5"/>
-      <c r="CQ24" s="5"/>
-      <c r="CR24" s="6"/>
-      <c r="CS24" s="4" t="s">
+      <c r="CO24" s="9"/>
+      <c r="CP24" s="9"/>
+      <c r="CQ24" s="9"/>
+      <c r="CR24" s="10"/>
+      <c r="CS24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="CT24" s="5"/>
-      <c r="CU24" s="5"/>
-      <c r="CV24" s="5"/>
-      <c r="CW24" s="6"/>
+      <c r="CT24" s="9"/>
+      <c r="CU24" s="9"/>
+      <c r="CV24" s="9"/>
+      <c r="CW24" s="10"/>
     </row>
     <row r="25" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -5956,261 +5967,261 @@
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>110</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="7">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="5">
         <v>130</v>
       </c>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="8"/>
-      <c r="AD64" s="8"/>
-      <c r="AE64" s="8"/>
-      <c r="AF64" s="8"/>
-      <c r="AG64" s="8"/>
-      <c r="AH64" s="8"/>
-      <c r="AI64" s="8"/>
-      <c r="AJ64" s="8"/>
-      <c r="AK64" s="8"/>
-      <c r="AL64" s="8"/>
-      <c r="AM64" s="8"/>
-      <c r="AN64" s="8"/>
-      <c r="AO64" s="9"/>
-      <c r="AP64" s="7">
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="7"/>
+      <c r="AP64" s="5">
         <v>140</v>
       </c>
-      <c r="AQ64" s="8"/>
-      <c r="AR64" s="8"/>
-      <c r="AS64" s="8"/>
-      <c r="AT64" s="8"/>
-      <c r="AU64" s="8"/>
-      <c r="AV64" s="8"/>
-      <c r="AW64" s="8"/>
-      <c r="AX64" s="8"/>
-      <c r="AY64" s="8"/>
-      <c r="AZ64" s="8"/>
-      <c r="BA64" s="8"/>
-      <c r="BB64" s="8"/>
-      <c r="BC64" s="8"/>
-      <c r="BD64" s="8"/>
-      <c r="BE64" s="8"/>
-      <c r="BF64" s="8"/>
-      <c r="BG64" s="8"/>
-      <c r="BH64" s="8"/>
-      <c r="BI64" s="9"/>
-      <c r="BJ64" s="7">
+      <c r="AQ64" s="6"/>
+      <c r="AR64" s="6"/>
+      <c r="AS64" s="6"/>
+      <c r="AT64" s="6"/>
+      <c r="AU64" s="6"/>
+      <c r="AV64" s="6"/>
+      <c r="AW64" s="6"/>
+      <c r="AX64" s="6"/>
+      <c r="AY64" s="6"/>
+      <c r="AZ64" s="6"/>
+      <c r="BA64" s="6"/>
+      <c r="BB64" s="6"/>
+      <c r="BC64" s="6"/>
+      <c r="BD64" s="6"/>
+      <c r="BE64" s="6"/>
+      <c r="BF64" s="6"/>
+      <c r="BG64" s="6"/>
+      <c r="BH64" s="6"/>
+      <c r="BI64" s="7"/>
+      <c r="BJ64" s="5">
         <v>150</v>
       </c>
-      <c r="BK64" s="8"/>
-      <c r="BL64" s="8"/>
-      <c r="BM64" s="8"/>
-      <c r="BN64" s="8"/>
-      <c r="BO64" s="8"/>
-      <c r="BP64" s="8"/>
-      <c r="BQ64" s="8"/>
-      <c r="BR64" s="8"/>
-      <c r="BS64" s="8"/>
-      <c r="BT64" s="8"/>
-      <c r="BU64" s="8"/>
-      <c r="BV64" s="8"/>
-      <c r="BW64" s="8"/>
-      <c r="BX64" s="8"/>
-      <c r="BY64" s="8"/>
-      <c r="BZ64" s="8"/>
-      <c r="CA64" s="8"/>
-      <c r="CB64" s="8"/>
-      <c r="CC64" s="9"/>
-      <c r="CD64" s="7">
+      <c r="BK64" s="6"/>
+      <c r="BL64" s="6"/>
+      <c r="BM64" s="6"/>
+      <c r="BN64" s="6"/>
+      <c r="BO64" s="6"/>
+      <c r="BP64" s="6"/>
+      <c r="BQ64" s="6"/>
+      <c r="BR64" s="6"/>
+      <c r="BS64" s="6"/>
+      <c r="BT64" s="6"/>
+      <c r="BU64" s="6"/>
+      <c r="BV64" s="6"/>
+      <c r="BW64" s="6"/>
+      <c r="BX64" s="6"/>
+      <c r="BY64" s="6"/>
+      <c r="BZ64" s="6"/>
+      <c r="CA64" s="6"/>
+      <c r="CB64" s="6"/>
+      <c r="CC64" s="7"/>
+      <c r="CD64" s="5">
         <v>160</v>
       </c>
-      <c r="CE64" s="8"/>
-      <c r="CF64" s="8"/>
-      <c r="CG64" s="8"/>
-      <c r="CH64" s="8"/>
-      <c r="CI64" s="8"/>
-      <c r="CJ64" s="8"/>
-      <c r="CK64" s="8"/>
-      <c r="CL64" s="8"/>
-      <c r="CM64" s="8"/>
-      <c r="CN64" s="8"/>
-      <c r="CO64" s="8"/>
-      <c r="CP64" s="8"/>
-      <c r="CQ64" s="8"/>
-      <c r="CR64" s="8"/>
-      <c r="CS64" s="8"/>
-      <c r="CT64" s="8"/>
-      <c r="CU64" s="8"/>
-      <c r="CV64" s="8"/>
-      <c r="CW64" s="9"/>
+      <c r="CE64" s="6"/>
+      <c r="CF64" s="6"/>
+      <c r="CG64" s="6"/>
+      <c r="CH64" s="6"/>
+      <c r="CI64" s="6"/>
+      <c r="CJ64" s="6"/>
+      <c r="CK64" s="6"/>
+      <c r="CL64" s="6"/>
+      <c r="CM64" s="6"/>
+      <c r="CN64" s="6"/>
+      <c r="CO64" s="6"/>
+      <c r="CP64" s="6"/>
+      <c r="CQ64" s="6"/>
+      <c r="CR64" s="6"/>
+      <c r="CS64" s="6"/>
+      <c r="CT64" s="6"/>
+      <c r="CU64" s="6"/>
+      <c r="CV64" s="6"/>
+      <c r="CW64" s="7"/>
     </row>
     <row r="65" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="7" t="s">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="7" t="s">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="7" t="s">
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="7" t="s">
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W65" s="8"/>
-      <c r="X65" s="8"/>
-      <c r="Y65" s="8"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="7" t="s">
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AB65" s="8"/>
-      <c r="AC65" s="8"/>
-      <c r="AD65" s="8"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="7" t="s">
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AG65" s="8"/>
-      <c r="AH65" s="8"/>
-      <c r="AI65" s="8"/>
-      <c r="AJ65" s="9"/>
-      <c r="AK65" s="7" t="s">
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AL65" s="8"/>
-      <c r="AM65" s="8"/>
-      <c r="AN65" s="8"/>
-      <c r="AO65" s="9"/>
-      <c r="AP65" s="7" t="s">
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="6"/>
+      <c r="AO65" s="7"/>
+      <c r="AP65" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AQ65" s="8"/>
-      <c r="AR65" s="8"/>
-      <c r="AS65" s="8"/>
-      <c r="AT65" s="9"/>
-      <c r="AU65" s="7" t="s">
+      <c r="AQ65" s="6"/>
+      <c r="AR65" s="6"/>
+      <c r="AS65" s="6"/>
+      <c r="AT65" s="7"/>
+      <c r="AU65" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AV65" s="8"/>
-      <c r="AW65" s="8"/>
-      <c r="AX65" s="8"/>
-      <c r="AY65" s="9"/>
-      <c r="AZ65" s="7" t="s">
+      <c r="AV65" s="6"/>
+      <c r="AW65" s="6"/>
+      <c r="AX65" s="6"/>
+      <c r="AY65" s="7"/>
+      <c r="AZ65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BA65" s="8"/>
-      <c r="BB65" s="8"/>
-      <c r="BC65" s="8"/>
-      <c r="BD65" s="9"/>
-      <c r="BE65" s="7" t="s">
+      <c r="BA65" s="6"/>
+      <c r="BB65" s="6"/>
+      <c r="BC65" s="6"/>
+      <c r="BD65" s="7"/>
+      <c r="BE65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BF65" s="8"/>
-      <c r="BG65" s="8"/>
-      <c r="BH65" s="8"/>
-      <c r="BI65" s="9"/>
-      <c r="BJ65" s="7" t="s">
+      <c r="BF65" s="6"/>
+      <c r="BG65" s="6"/>
+      <c r="BH65" s="6"/>
+      <c r="BI65" s="7"/>
+      <c r="BJ65" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BK65" s="8"/>
-      <c r="BL65" s="8"/>
-      <c r="BM65" s="8"/>
-      <c r="BN65" s="9"/>
-      <c r="BO65" s="7" t="s">
+      <c r="BK65" s="6"/>
+      <c r="BL65" s="6"/>
+      <c r="BM65" s="6"/>
+      <c r="BN65" s="7"/>
+      <c r="BO65" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BP65" s="8"/>
-      <c r="BQ65" s="8"/>
-      <c r="BR65" s="8"/>
-      <c r="BS65" s="9"/>
-      <c r="BT65" s="7" t="s">
+      <c r="BP65" s="6"/>
+      <c r="BQ65" s="6"/>
+      <c r="BR65" s="6"/>
+      <c r="BS65" s="7"/>
+      <c r="BT65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BU65" s="8"/>
-      <c r="BV65" s="8"/>
-      <c r="BW65" s="8"/>
-      <c r="BX65" s="9"/>
-      <c r="BY65" s="7" t="s">
+      <c r="BU65" s="6"/>
+      <c r="BV65" s="6"/>
+      <c r="BW65" s="6"/>
+      <c r="BX65" s="7"/>
+      <c r="BY65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BZ65" s="8"/>
-      <c r="CA65" s="8"/>
-      <c r="CB65" s="8"/>
-      <c r="CC65" s="9"/>
-      <c r="CD65" s="7" t="s">
+      <c r="BZ65" s="6"/>
+      <c r="CA65" s="6"/>
+      <c r="CB65" s="6"/>
+      <c r="CC65" s="7"/>
+      <c r="CD65" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="CE65" s="8"/>
-      <c r="CF65" s="8"/>
-      <c r="CG65" s="8"/>
-      <c r="CH65" s="9"/>
-      <c r="CI65" s="7" t="s">
+      <c r="CE65" s="6"/>
+      <c r="CF65" s="6"/>
+      <c r="CG65" s="6"/>
+      <c r="CH65" s="7"/>
+      <c r="CI65" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="CJ65" s="8"/>
-      <c r="CK65" s="8"/>
-      <c r="CL65" s="8"/>
-      <c r="CM65" s="9"/>
-      <c r="CN65" s="7" t="s">
+      <c r="CJ65" s="6"/>
+      <c r="CK65" s="6"/>
+      <c r="CL65" s="6"/>
+      <c r="CM65" s="7"/>
+      <c r="CN65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CO65" s="8"/>
-      <c r="CP65" s="8"/>
-      <c r="CQ65" s="8"/>
-      <c r="CR65" s="9"/>
-      <c r="CS65" s="7" t="s">
+      <c r="CO65" s="6"/>
+      <c r="CP65" s="6"/>
+      <c r="CQ65" s="6"/>
+      <c r="CR65" s="7"/>
+      <c r="CS65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CT65" s="8"/>
-      <c r="CU65" s="8"/>
-      <c r="CV65" s="8"/>
-      <c r="CW65" s="9"/>
+      <c r="CT65" s="6"/>
+      <c r="CU65" s="6"/>
+      <c r="CV65" s="6"/>
+      <c r="CW65" s="7"/>
     </row>
     <row r="66" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
@@ -11085,261 +11096,261 @@
       <c r="A105" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="5">
         <v>110</v>
       </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="9"/>
-      <c r="V105" s="7">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="5">
         <v>130</v>
       </c>
-      <c r="W105" s="8"/>
-      <c r="X105" s="8"/>
-      <c r="Y105" s="8"/>
-      <c r="Z105" s="8"/>
-      <c r="AA105" s="8"/>
-      <c r="AB105" s="8"/>
-      <c r="AC105" s="8"/>
-      <c r="AD105" s="8"/>
-      <c r="AE105" s="8"/>
-      <c r="AF105" s="8"/>
-      <c r="AG105" s="8"/>
-      <c r="AH105" s="8"/>
-      <c r="AI105" s="8"/>
-      <c r="AJ105" s="8"/>
-      <c r="AK105" s="8"/>
-      <c r="AL105" s="8"/>
-      <c r="AM105" s="8"/>
-      <c r="AN105" s="8"/>
-      <c r="AO105" s="9"/>
-      <c r="AP105" s="7">
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
+      <c r="Y105" s="6"/>
+      <c r="Z105" s="6"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
+      <c r="AD105" s="6"/>
+      <c r="AE105" s="6"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="6"/>
+      <c r="AH105" s="6"/>
+      <c r="AI105" s="6"/>
+      <c r="AJ105" s="6"/>
+      <c r="AK105" s="6"/>
+      <c r="AL105" s="6"/>
+      <c r="AM105" s="6"/>
+      <c r="AN105" s="6"/>
+      <c r="AO105" s="7"/>
+      <c r="AP105" s="5">
         <v>140</v>
       </c>
-      <c r="AQ105" s="8"/>
-      <c r="AR105" s="8"/>
-      <c r="AS105" s="8"/>
-      <c r="AT105" s="8"/>
-      <c r="AU105" s="8"/>
-      <c r="AV105" s="8"/>
-      <c r="AW105" s="8"/>
-      <c r="AX105" s="8"/>
-      <c r="AY105" s="8"/>
-      <c r="AZ105" s="8"/>
-      <c r="BA105" s="8"/>
-      <c r="BB105" s="8"/>
-      <c r="BC105" s="8"/>
-      <c r="BD105" s="8"/>
-      <c r="BE105" s="8"/>
-      <c r="BF105" s="8"/>
-      <c r="BG105" s="8"/>
-      <c r="BH105" s="8"/>
-      <c r="BI105" s="9"/>
-      <c r="BJ105" s="7">
+      <c r="AQ105" s="6"/>
+      <c r="AR105" s="6"/>
+      <c r="AS105" s="6"/>
+      <c r="AT105" s="6"/>
+      <c r="AU105" s="6"/>
+      <c r="AV105" s="6"/>
+      <c r="AW105" s="6"/>
+      <c r="AX105" s="6"/>
+      <c r="AY105" s="6"/>
+      <c r="AZ105" s="6"/>
+      <c r="BA105" s="6"/>
+      <c r="BB105" s="6"/>
+      <c r="BC105" s="6"/>
+      <c r="BD105" s="6"/>
+      <c r="BE105" s="6"/>
+      <c r="BF105" s="6"/>
+      <c r="BG105" s="6"/>
+      <c r="BH105" s="6"/>
+      <c r="BI105" s="7"/>
+      <c r="BJ105" s="5">
         <v>150</v>
       </c>
-      <c r="BK105" s="8"/>
-      <c r="BL105" s="8"/>
-      <c r="BM105" s="8"/>
-      <c r="BN105" s="8"/>
-      <c r="BO105" s="8"/>
-      <c r="BP105" s="8"/>
-      <c r="BQ105" s="8"/>
-      <c r="BR105" s="8"/>
-      <c r="BS105" s="8"/>
-      <c r="BT105" s="8"/>
-      <c r="BU105" s="8"/>
-      <c r="BV105" s="8"/>
-      <c r="BW105" s="8"/>
-      <c r="BX105" s="8"/>
-      <c r="BY105" s="8"/>
-      <c r="BZ105" s="8"/>
-      <c r="CA105" s="8"/>
-      <c r="CB105" s="8"/>
-      <c r="CC105" s="9"/>
-      <c r="CD105" s="7">
+      <c r="BK105" s="6"/>
+      <c r="BL105" s="6"/>
+      <c r="BM105" s="6"/>
+      <c r="BN105" s="6"/>
+      <c r="BO105" s="6"/>
+      <c r="BP105" s="6"/>
+      <c r="BQ105" s="6"/>
+      <c r="BR105" s="6"/>
+      <c r="BS105" s="6"/>
+      <c r="BT105" s="6"/>
+      <c r="BU105" s="6"/>
+      <c r="BV105" s="6"/>
+      <c r="BW105" s="6"/>
+      <c r="BX105" s="6"/>
+      <c r="BY105" s="6"/>
+      <c r="BZ105" s="6"/>
+      <c r="CA105" s="6"/>
+      <c r="CB105" s="6"/>
+      <c r="CC105" s="7"/>
+      <c r="CD105" s="5">
         <v>160</v>
       </c>
-      <c r="CE105" s="8"/>
-      <c r="CF105" s="8"/>
-      <c r="CG105" s="8"/>
-      <c r="CH105" s="8"/>
-      <c r="CI105" s="8"/>
-      <c r="CJ105" s="8"/>
-      <c r="CK105" s="8"/>
-      <c r="CL105" s="8"/>
-      <c r="CM105" s="8"/>
-      <c r="CN105" s="8"/>
-      <c r="CO105" s="8"/>
-      <c r="CP105" s="8"/>
-      <c r="CQ105" s="8"/>
-      <c r="CR105" s="8"/>
-      <c r="CS105" s="8"/>
-      <c r="CT105" s="8"/>
-      <c r="CU105" s="8"/>
-      <c r="CV105" s="8"/>
-      <c r="CW105" s="9"/>
+      <c r="CE105" s="6"/>
+      <c r="CF105" s="6"/>
+      <c r="CG105" s="6"/>
+      <c r="CH105" s="6"/>
+      <c r="CI105" s="6"/>
+      <c r="CJ105" s="6"/>
+      <c r="CK105" s="6"/>
+      <c r="CL105" s="6"/>
+      <c r="CM105" s="6"/>
+      <c r="CN105" s="6"/>
+      <c r="CO105" s="6"/>
+      <c r="CP105" s="6"/>
+      <c r="CQ105" s="6"/>
+      <c r="CR105" s="6"/>
+      <c r="CS105" s="6"/>
+      <c r="CT105" s="6"/>
+      <c r="CU105" s="6"/>
+      <c r="CV105" s="6"/>
+      <c r="CW105" s="7"/>
     </row>
     <row r="106" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="7" t="s">
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="7" t="s">
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="9"/>
-      <c r="Q106" s="7" t="s">
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="7" t="s">
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W106" s="8"/>
-      <c r="X106" s="8"/>
-      <c r="Y106" s="8"/>
-      <c r="Z106" s="9"/>
-      <c r="AA106" s="7" t="s">
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="7"/>
+      <c r="AA106" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AB106" s="8"/>
-      <c r="AC106" s="8"/>
-      <c r="AD106" s="8"/>
-      <c r="AE106" s="9"/>
-      <c r="AF106" s="7" t="s">
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="6"/>
+      <c r="AD106" s="6"/>
+      <c r="AE106" s="7"/>
+      <c r="AF106" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AG106" s="8"/>
-      <c r="AH106" s="8"/>
-      <c r="AI106" s="8"/>
-      <c r="AJ106" s="9"/>
-      <c r="AK106" s="7" t="s">
+      <c r="AG106" s="6"/>
+      <c r="AH106" s="6"/>
+      <c r="AI106" s="6"/>
+      <c r="AJ106" s="7"/>
+      <c r="AK106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AL106" s="8"/>
-      <c r="AM106" s="8"/>
-      <c r="AN106" s="8"/>
-      <c r="AO106" s="9"/>
-      <c r="AP106" s="7" t="s">
+      <c r="AL106" s="6"/>
+      <c r="AM106" s="6"/>
+      <c r="AN106" s="6"/>
+      <c r="AO106" s="7"/>
+      <c r="AP106" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AQ106" s="8"/>
-      <c r="AR106" s="8"/>
-      <c r="AS106" s="8"/>
-      <c r="AT106" s="9"/>
-      <c r="AU106" s="7" t="s">
+      <c r="AQ106" s="6"/>
+      <c r="AR106" s="6"/>
+      <c r="AS106" s="6"/>
+      <c r="AT106" s="7"/>
+      <c r="AU106" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AV106" s="8"/>
-      <c r="AW106" s="8"/>
-      <c r="AX106" s="8"/>
-      <c r="AY106" s="9"/>
-      <c r="AZ106" s="7" t="s">
+      <c r="AV106" s="6"/>
+      <c r="AW106" s="6"/>
+      <c r="AX106" s="6"/>
+      <c r="AY106" s="7"/>
+      <c r="AZ106" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BA106" s="8"/>
-      <c r="BB106" s="8"/>
-      <c r="BC106" s="8"/>
-      <c r="BD106" s="9"/>
-      <c r="BE106" s="7" t="s">
+      <c r="BA106" s="6"/>
+      <c r="BB106" s="6"/>
+      <c r="BC106" s="6"/>
+      <c r="BD106" s="7"/>
+      <c r="BE106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BF106" s="8"/>
-      <c r="BG106" s="8"/>
-      <c r="BH106" s="8"/>
-      <c r="BI106" s="9"/>
-      <c r="BJ106" s="7" t="s">
+      <c r="BF106" s="6"/>
+      <c r="BG106" s="6"/>
+      <c r="BH106" s="6"/>
+      <c r="BI106" s="7"/>
+      <c r="BJ106" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BK106" s="8"/>
-      <c r="BL106" s="8"/>
-      <c r="BM106" s="8"/>
-      <c r="BN106" s="9"/>
-      <c r="BO106" s="7" t="s">
+      <c r="BK106" s="6"/>
+      <c r="BL106" s="6"/>
+      <c r="BM106" s="6"/>
+      <c r="BN106" s="7"/>
+      <c r="BO106" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BP106" s="8"/>
-      <c r="BQ106" s="8"/>
-      <c r="BR106" s="8"/>
-      <c r="BS106" s="9"/>
-      <c r="BT106" s="7" t="s">
+      <c r="BP106" s="6"/>
+      <c r="BQ106" s="6"/>
+      <c r="BR106" s="6"/>
+      <c r="BS106" s="7"/>
+      <c r="BT106" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BU106" s="8"/>
-      <c r="BV106" s="8"/>
-      <c r="BW106" s="8"/>
-      <c r="BX106" s="9"/>
-      <c r="BY106" s="7" t="s">
+      <c r="BU106" s="6"/>
+      <c r="BV106" s="6"/>
+      <c r="BW106" s="6"/>
+      <c r="BX106" s="7"/>
+      <c r="BY106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BZ106" s="8"/>
-      <c r="CA106" s="8"/>
-      <c r="CB106" s="8"/>
-      <c r="CC106" s="9"/>
-      <c r="CD106" s="7" t="s">
+      <c r="BZ106" s="6"/>
+      <c r="CA106" s="6"/>
+      <c r="CB106" s="6"/>
+      <c r="CC106" s="7"/>
+      <c r="CD106" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="CE106" s="8"/>
-      <c r="CF106" s="8"/>
-      <c r="CG106" s="8"/>
-      <c r="CH106" s="9"/>
-      <c r="CI106" s="7" t="s">
+      <c r="CE106" s="6"/>
+      <c r="CF106" s="6"/>
+      <c r="CG106" s="6"/>
+      <c r="CH106" s="7"/>
+      <c r="CI106" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="CJ106" s="8"/>
-      <c r="CK106" s="8"/>
-      <c r="CL106" s="8"/>
-      <c r="CM106" s="9"/>
-      <c r="CN106" s="7" t="s">
+      <c r="CJ106" s="6"/>
+      <c r="CK106" s="6"/>
+      <c r="CL106" s="6"/>
+      <c r="CM106" s="7"/>
+      <c r="CN106" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CO106" s="8"/>
-      <c r="CP106" s="8"/>
-      <c r="CQ106" s="8"/>
-      <c r="CR106" s="9"/>
-      <c r="CS106" s="7" t="s">
+      <c r="CO106" s="6"/>
+      <c r="CP106" s="6"/>
+      <c r="CQ106" s="6"/>
+      <c r="CR106" s="7"/>
+      <c r="CS106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CT106" s="8"/>
-      <c r="CU106" s="8"/>
-      <c r="CV106" s="8"/>
-      <c r="CW106" s="9"/>
+      <c r="CT106" s="6"/>
+      <c r="CU106" s="6"/>
+      <c r="CV106" s="6"/>
+      <c r="CW106" s="7"/>
     </row>
     <row r="107" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -15918,81 +15929,81 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="BY24:CC24"/>
+    <mergeCell ref="CD24:CH24"/>
+    <mergeCell ref="CI24:CM24"/>
+    <mergeCell ref="CN24:CR24"/>
+    <mergeCell ref="CS24:CW24"/>
+    <mergeCell ref="AZ24:BD24"/>
+    <mergeCell ref="BE24:BI24"/>
+    <mergeCell ref="BJ24:BN24"/>
+    <mergeCell ref="BO24:BS24"/>
+    <mergeCell ref="BT24:BX24"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="AK24:AO24"/>
+    <mergeCell ref="AP24:AT24"/>
+    <mergeCell ref="AU24:AY24"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="V24:Z24"/>
+    <mergeCell ref="B23:U23"/>
+    <mergeCell ref="V23:AO23"/>
+    <mergeCell ref="AP23:BI23"/>
+    <mergeCell ref="BJ23:CC23"/>
+    <mergeCell ref="CD23:CW23"/>
+    <mergeCell ref="B64:U64"/>
+    <mergeCell ref="V64:AO64"/>
+    <mergeCell ref="AP64:BI64"/>
+    <mergeCell ref="BJ64:CC64"/>
+    <mergeCell ref="CD64:CW64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="L65:P65"/>
+    <mergeCell ref="Q65:U65"/>
+    <mergeCell ref="V65:Z65"/>
+    <mergeCell ref="AA65:AE65"/>
+    <mergeCell ref="AF65:AJ65"/>
+    <mergeCell ref="AK65:AO65"/>
+    <mergeCell ref="AP65:AT65"/>
+    <mergeCell ref="AU65:AY65"/>
+    <mergeCell ref="AZ65:BD65"/>
+    <mergeCell ref="BE65:BI65"/>
+    <mergeCell ref="BJ65:BN65"/>
+    <mergeCell ref="BO65:BS65"/>
+    <mergeCell ref="BT65:BX65"/>
+    <mergeCell ref="BY65:CC65"/>
+    <mergeCell ref="CD65:CH65"/>
+    <mergeCell ref="CI65:CM65"/>
+    <mergeCell ref="CN65:CR65"/>
+    <mergeCell ref="CS65:CW65"/>
+    <mergeCell ref="B105:U105"/>
+    <mergeCell ref="V105:AO105"/>
+    <mergeCell ref="AP105:BI105"/>
+    <mergeCell ref="BJ105:CC105"/>
+    <mergeCell ref="CD105:CW105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="L106:P106"/>
+    <mergeCell ref="Q106:U106"/>
+    <mergeCell ref="V106:Z106"/>
+    <mergeCell ref="AA106:AE106"/>
+    <mergeCell ref="AF106:AJ106"/>
+    <mergeCell ref="AK106:AO106"/>
+    <mergeCell ref="AP106:AT106"/>
+    <mergeCell ref="AU106:AY106"/>
+    <mergeCell ref="AZ106:BD106"/>
+    <mergeCell ref="BE106:BI106"/>
+    <mergeCell ref="BJ106:BN106"/>
+    <mergeCell ref="BO106:BS106"/>
+    <mergeCell ref="BT106:BX106"/>
     <mergeCell ref="BY106:CC106"/>
     <mergeCell ref="CD106:CH106"/>
     <mergeCell ref="CI106:CM106"/>
     <mergeCell ref="CN106:CR106"/>
     <mergeCell ref="CS106:CW106"/>
-    <mergeCell ref="AZ106:BD106"/>
-    <mergeCell ref="BE106:BI106"/>
-    <mergeCell ref="BJ106:BN106"/>
-    <mergeCell ref="BO106:BS106"/>
-    <mergeCell ref="BT106:BX106"/>
-    <mergeCell ref="AA106:AE106"/>
-    <mergeCell ref="AF106:AJ106"/>
-    <mergeCell ref="AK106:AO106"/>
-    <mergeCell ref="AP106:AT106"/>
-    <mergeCell ref="AU106:AY106"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="L106:P106"/>
-    <mergeCell ref="Q106:U106"/>
-    <mergeCell ref="V106:Z106"/>
-    <mergeCell ref="B105:U105"/>
-    <mergeCell ref="V105:AO105"/>
-    <mergeCell ref="AP105:BI105"/>
-    <mergeCell ref="BJ105:CC105"/>
-    <mergeCell ref="CD105:CW105"/>
-    <mergeCell ref="BY65:CC65"/>
-    <mergeCell ref="CD65:CH65"/>
-    <mergeCell ref="CI65:CM65"/>
-    <mergeCell ref="CN65:CR65"/>
-    <mergeCell ref="CS65:CW65"/>
-    <mergeCell ref="AZ65:BD65"/>
-    <mergeCell ref="BE65:BI65"/>
-    <mergeCell ref="BJ65:BN65"/>
-    <mergeCell ref="BO65:BS65"/>
-    <mergeCell ref="BT65:BX65"/>
-    <mergeCell ref="AA65:AE65"/>
-    <mergeCell ref="AF65:AJ65"/>
-    <mergeCell ref="AK65:AO65"/>
-    <mergeCell ref="AP65:AT65"/>
-    <mergeCell ref="AU65:AY65"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="L65:P65"/>
-    <mergeCell ref="Q65:U65"/>
-    <mergeCell ref="V65:Z65"/>
-    <mergeCell ref="B64:U64"/>
-    <mergeCell ref="V64:AO64"/>
-    <mergeCell ref="AP64:BI64"/>
-    <mergeCell ref="BJ64:CC64"/>
-    <mergeCell ref="CD64:CW64"/>
-    <mergeCell ref="B23:U23"/>
-    <mergeCell ref="V23:AO23"/>
-    <mergeCell ref="AP23:BI23"/>
-    <mergeCell ref="BJ23:CC23"/>
-    <mergeCell ref="CD23:CW23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="V24:Z24"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="AK24:AO24"/>
-    <mergeCell ref="AP24:AT24"/>
-    <mergeCell ref="AU24:AY24"/>
-    <mergeCell ref="AZ24:BD24"/>
-    <mergeCell ref="BE24:BI24"/>
-    <mergeCell ref="BJ24:BN24"/>
-    <mergeCell ref="BO24:BS24"/>
-    <mergeCell ref="BT24:BX24"/>
-    <mergeCell ref="BY24:CC24"/>
-    <mergeCell ref="CD24:CH24"/>
-    <mergeCell ref="CI24:CM24"/>
-    <mergeCell ref="CN24:CR24"/>
-    <mergeCell ref="CS24:CW24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16002,7 +16013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -16012,12 +16023,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -16037,16 +16048,16 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="4">
         <v>0.48328936063006128</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="4">
         <v>0.54309402271328155</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="4">
         <v>0.58171321279413624</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="4">
         <v>0.64940492220560742</v>
       </c>
     </row>
@@ -16054,16 +16065,16 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="4">
         <v>0.56764210708023177</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="4">
         <v>0.63873709104457843</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="4">
         <v>0.68532241646411418</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="4">
         <v>0.76641316013844496</v>
       </c>
     </row>
@@ -16071,16 +16082,16 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="4">
         <v>0.60998760233309857</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="4">
         <v>0.68661171218573958</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="4">
         <v>0.73723704186990047</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="4">
         <v>0.82503210642555846</v>
       </c>
     </row>
@@ -16088,16 +16099,16 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="4">
         <v>0.6525353348071623</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="4">
         <v>0.73459647031636077</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>0.78920110864735926</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="4">
         <v>0.88372253656439903</v>
       </c>
     </row>
@@ -16105,26 +16116,26 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="4">
         <v>0.69511687808610234</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="4">
         <v>0.78279479658747653</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="4">
         <v>0.84121461679661425</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="4">
         <v>0.94248445055390095</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -16144,16 +16155,16 @@
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="4">
         <v>0.40645918197613889</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="4">
         <v>0.45654583033419738</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="4">
         <v>0.48881527454024898</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="4">
         <v>0.54520276838529247</v>
       </c>
     </row>
@@ -16161,16 +16172,16 @@
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="4">
         <v>0.47745384674144492</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="4">
         <v>0.53701322172856025</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="4">
         <v>0.57578690707163549</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="4">
         <v>0.64342984830070926</v>
       </c>
     </row>
@@ -16178,16 +16189,16 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="4">
         <v>0.51299161988376041</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="4">
         <v>0.57729894802789217</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="4">
         <v>0.61945308296144297</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="4">
         <v>0.69271273574839098</v>
       </c>
     </row>
@@ -16195,16 +16206,16 @@
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="4">
         <v>0.54871879465860329</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="4">
         <v>0.61761936139448992</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="4">
         <v>0.66316767197578241</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="4">
         <v>0.74206554665139823</v>
       </c>
     </row>
@@ -16212,26 +16223,26 @@
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="4">
         <v>0.58456435746455238</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="4">
         <v>0.65804855357549585</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="4">
         <v>0.70693067411603228</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="4">
         <v>0.79148828101046986</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -16251,16 +16262,16 @@
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="4">
         <v>0.35149256574491489</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="4">
         <v>0.39464390601355209</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="4">
         <v>0.42238617497117142</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="4">
         <v>0.47072164688877371</v>
       </c>
     </row>
@@ -16268,16 +16279,16 @@
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="4">
         <v>0.41293113669219078</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="4">
         <v>0.46425801132243188</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="4">
         <v>0.49747528218845949</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="4">
         <v>0.55553395126854788</v>
       </c>
     </row>
@@ -16285,16 +16296,16 @@
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="4">
         <v>0.44369036708604032</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="4">
         <v>0.4991164312760436</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="4">
         <v>0.53524484266747163</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="4">
         <v>0.59814506935525447</v>
       </c>
     </row>
@@ -16302,16 +16313,16 @@
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="4">
         <v>0.47447622742689077</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="4">
         <v>0.53400909609492886</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="4">
         <v>0.57306215873554578</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="4">
         <v>0.64082509309915725</v>
       </c>
     </row>
@@ -16319,16 +16330,16 @@
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="4">
         <v>0.5054965696474798</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="4">
         <v>0.56893600577977588</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="4">
         <v>0.61092723039346486</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="4">
         <v>0.68357402250143973</v>
       </c>
     </row>
